--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_4_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_4_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570864948.432647</v>
+        <v>59583988.52783271</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -967,7 +967,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X5" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y5" t="n">
         <v>511.3174326828064</v>
@@ -995,13 +995,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1229,7 +1229,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>338.1025423803039</v>
       </c>
       <c r="G9" t="n">
         <v>322.5970075731406</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R10" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G11" t="n">
         <v>397.8840054528454</v>
@@ -1444,7 +1444,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="12">
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1666,7 +1666,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2262,43 +2262,43 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759809475</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>67.808644398718</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C32" t="n">
         <v>449.4745782429939</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3577,7 +3577,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y38" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="39">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
@@ -3814,7 +3814,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="42">
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="45">
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4312,49 +4312,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.58008885974</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800483</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4491,16 +4491,16 @@
         <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
         <v>457.4949902104935</v>
@@ -4570,28 +4570,28 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>1841.010275303557</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4600,19 +4600,19 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
         <v>3583.51196363841</v>
@@ -4643,10 +4643,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,43 +4707,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="C7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="D7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="E7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="F7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="G7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="H7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>409.2181261040298</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
         <v>426.6131206966359</v>
@@ -4758,25 +4758,25 @@
         <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="T7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="U7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="V7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="W7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="X7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.96</v>
+        <v>259.7315161073162</v>
       </c>
     </row>
     <row r="8">
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4810,25 +4810,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2153.765102156982</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
         <v>6931.116362236997</v>
@@ -4837,25 +4837,25 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4877,13 +4877,13 @@
         <v>1223.229815526098</v>
       </c>
       <c r="F9" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4971,22 +4971,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q10" t="n">
         <v>351.2038120028187</v>
@@ -5023,16 +5023,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
         <v>894.2358041069906</v>
@@ -5044,31 +5044,31 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L11" t="n">
-        <v>3083.800289043491</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M11" t="n">
-        <v>3565.979488556994</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N11" t="n">
-        <v>4131.022552429667</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O11" t="n">
-        <v>5041.17743537041</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P11" t="n">
-        <v>5877.044763467824</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
-        <v>6943.558825806924</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
@@ -5092,7 +5092,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5235,13 +5235,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5281,31 +5281,31 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1830.673957362034</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>2748.266680678617</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
@@ -5314,22 +5314,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5430,10 +5430,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5533,10 +5533,10 @@
         <v>2739.192211873577</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049235</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P17" t="n">
         <v>6474.295852434775</v>
@@ -5661,16 +5661,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>2153.765102156984</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>3071.357825473567</v>
       </c>
       <c r="M20" t="n">
-        <v>3077.533789260046</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5946,22 +5946,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5992,28 +5992,28 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q23" t="n">
         <v>6931.116362236997</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6174,13 +6174,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
         <v>140.96</v>
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6274,10 +6274,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6426,16 +6426,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G29" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6469,16 +6469,16 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N29" t="n">
         <v>4728.273641396618</v>
@@ -6505,16 +6505,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6621,7 +6621,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6703,25 +6703,25 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1339.420289043491</v>
+        <v>1713.790319599031</v>
       </c>
       <c r="L32" t="n">
-        <v>2257.013012360075</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M32" t="n">
-        <v>2739.192211873577</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N32" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O32" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P32" t="n">
         <v>6474.295852434775</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6909,7 +6909,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="35">
@@ -6943,16 +6943,16 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>3240.782198133642</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N35" t="n">
         <v>4728.273641396618</v>
@@ -7080,19 +7080,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7156,19 +7156,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7177,31 +7177,31 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1765.421978263786</v>
+        <v>2018.47013910948</v>
       </c>
       <c r="L38" t="n">
-        <v>2683.01470158037</v>
+        <v>2936.062862426063</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
@@ -7225,7 +7225,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7374,10 +7374,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
         <v>140.96</v>
@@ -7393,7 +7393,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
         <v>2126.146990020859</v>
@@ -7462,7 +7462,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7651,28 +7651,28 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.420289043491</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L44" t="n">
-        <v>2257.013012360075</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M44" t="n">
-        <v>3788.860546968407</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -7699,7 +7699,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7788,25 +7788,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I46" t="n">
         <v>140.96</v>
@@ -7833,31 +7833,31 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Q46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>567.8446588919046</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>315.9139665186112</v>
+        <v>721.547474042929</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8458,13 +8458,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>315.9139665186112</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>835.1386633165826</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
-        <v>281.9729713142314</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>496.2158265843866</v>
       </c>
       <c r="L14" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>567.8446588919044</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>341.7591690772404</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>315.9139665186131</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>341.7591690772404</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>822.5705182964547</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -10117,19 +10117,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>265.4073538855533</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N32" t="n">
-        <v>567.8446588919044</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>265.4073538855533</v>
       </c>
       <c r="N35" t="n">
-        <v>931.766039788185</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>609.557124268908</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1008.117854979872</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>378.1515460156958</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F16" t="n">
-        <v>109.1700674243155</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G16" t="n">
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23901,7 +23901,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D19" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E19" t="n">
         <v>280.9809048369565</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q25" t="n">
-        <v>340.0154778821716</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R25" t="n">
         <v>608.1413738827905</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E28" t="n">
-        <v>213.1722604382385</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F28" t="n">
         <v>274.3828559677419</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24861,10 +24861,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>137.5385800635563</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24922,58 +24922,58 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>1.388344292978275</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25149,7 +25149,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C37" t="n">
-        <v>107.5124581046183</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D37" t="n">
         <v>285.5362180555555</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25465,7 +25465,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25614,13 +25614,13 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y40" t="n">
         <v>287.4653528494624</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="42">
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="45">
@@ -26049,7 +26049,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q46" t="n">
-        <v>340.0154778821716</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R46" t="n">
         <v>608.1413738827905</v>
@@ -26082,7 +26082,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T46" t="n">
-        <v>198.7676812603561</v>
+        <v>130.9590368616381</v>
       </c>
       <c r="U46" t="n">
         <v>150.8146863564251</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15954.38442270377</v>
+        <v>1316006.940470103</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31731.20170604742</v>
+        <v>2606868.406811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47508.01898939107</v>
+        <v>3897729.873151923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65464.68190845994</v>
+        <v>5053973.894141731</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83421.34482752881</v>
+        <v>6210217.915131541</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101378.0077465977</v>
+        <v>7366461.936121343</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119334.6706656665</v>
+        <v>8522705.957111143</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137291.3335847354</v>
+        <v>9678949.978100942</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155247.9965038043</v>
+        <v>10835193.99909074</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173204.6594228731</v>
+        <v>11991438.02008054</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191161.322341942</v>
+        <v>13147682.04107034</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209117.9852610109</v>
+        <v>14303926.06206015</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227074.6481800799</v>
+        <v>15460170.08304997</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245031.3110991491</v>
+        <v>16616414.10403979</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262987.9740182182</v>
+        <v>17772658.12502962</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411316</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="D2" t="n">
         <v>913048.3542411313</v>
@@ -26331,37 +26331,37 @@
         <v>817831.136797669</v>
       </c>
       <c r="F2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="G2" t="n">
         <v>817831.1367976691</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="I2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="J2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="K2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="L2" t="n">
         <v>817831.1367976689</v>
       </c>
-      <c r="L2" t="n">
-        <v>817831.1367976691</v>
-      </c>
       <c r="M2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.136797669</v>
       </c>
       <c r="N2" t="n">
         <v>817831.1367976689</v>
       </c>
       <c r="O2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.1367976688</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.1367976689</v>
       </c>
     </row>
     <row r="3">
@@ -26432,19 +26432,19 @@
         <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
-        <v>26356.19966309945</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="F4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
-        <v>26356.19966309945</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
+        <v>26356.19966309948</v>
+      </c>
+      <c r="I4" t="n">
         <v>26356.19966309947</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26356.19966309946</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309947</v>
@@ -26453,19 +26453,19 @@
         <v>26356.19966309947</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966309945</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="O4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
     </row>
     <row r="5">
@@ -26530,7 +26530,7 @@
         <v>-1405906.1866451</v>
       </c>
       <c r="C6" t="n">
-        <v>639094.7644093808</v>
+        <v>639094.764409381</v>
       </c>
       <c r="D6" t="n">
         <v>639397.1250793139</v>
@@ -26539,34 +26539,34 @@
         <v>652495.5371345696</v>
       </c>
       <c r="F6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.5371345694</v>
       </c>
       <c r="G6" t="n">
         <v>652495.5371345696</v>
       </c>
       <c r="H6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="I6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="J6" t="n">
         <v>32271.53713456928</v>
       </c>
       <c r="K6" t="n">
+        <v>652495.5371345696</v>
+      </c>
+      <c r="L6" t="n">
         <v>652495.5371345694</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>652495.5371345696</v>
-      </c>
-      <c r="M6" t="n">
-        <v>652495.5371345694</v>
       </c>
       <c r="N6" t="n">
         <v>652495.5371345694</v>
       </c>
       <c r="O6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345691</v>
       </c>
       <c r="P6" t="n">
         <v>652495.5371345694</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27687,7 +27687,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I4" t="n">
-        <v>248.5691801256921</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27699,7 +27699,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27811,7 +27811,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27839,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27942,7 +27942,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
         <v>400</v>
@@ -27954,10 +27954,10 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>316.45975839138</v>
+        <v>400</v>
       </c>
       <c r="T7" t="n">
-        <v>198.7676812603561</v>
+        <v>235.1986680429646</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.533699957572935</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28167,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="L10" t="n">
         <v>31.85592323974635</v>
@@ -28176,7 +28176,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>319.1859637116848</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
@@ -34825,16 +34825,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1242.775303202028</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34843,13 +34843,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498716</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34983,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>150.9965757542561</v>
@@ -34995,7 +34995,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35062,16 +35062,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L5" t="n">
-        <v>1242.775303202028</v>
+        <v>1648.408810726346</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35238,7 +35238,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>31.19380758975518</v>
@@ -35250,10 +35250,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.54024160861997</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.43098678260854</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35302,13 +35302,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1063.028252950772</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>926.861336683417</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35323,7 +35323,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35463,7 +35463,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
-        <v>17.57070160869296</v>
+        <v>168.7357375896766</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35536,16 +35536,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L11" t="n">
-        <v>1762</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35563,7 +35563,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
-        <v>105.4961355485618</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,19 +35773,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>1243.330113016547</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -35800,7 +35800,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36025,13 +36025,13 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>1138.59522846026</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1261.107535684052</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36247,22 +36247,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>1063.028252950774</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>828.808865555526</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36484,19 +36484,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1274.04639948992</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1309.62021477474</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36508,7 +36508,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36961,19 +36961,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>752.457050363839</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
@@ -37195,28 +37195,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.1142864321608</v>
+        <v>1048.91401725617</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M32" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N32" t="n">
-        <v>1138.59522846026</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
@@ -37435,7 +37435,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
         <v>747.114286432161</v>
@@ -37444,10 +37444,10 @@
         <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>752.457050363839</v>
       </c>
       <c r="N35" t="n">
-        <v>1502.516609356541</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37669,19 +37669,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>1356.671410701069</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>1495.167551458158</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38143,22 +38143,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321608</v>
+        <v>1063.028252950772</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>948.9021155840516</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
@@ -38167,7 +38167,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
